--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -647,7 +647,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -647,7 +647,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
